--- a/_Experiments/__dataRepo/_model_RotaRod data.xlsx
+++ b/_Experiments/__dataRepo/_model_RotaRod data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="24420" windowHeight="12900" tabRatio="711" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="320" windowWidth="24420" windowHeight="10720" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VonFrey Baseline" sheetId="1" r:id="rId1"/>
@@ -571,10 +571,10 @@
       <selection activeCell="Q20" sqref="Q20:U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="8"/>
-    <col min="3" max="4" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="8.81640625" style="8"/>
+    <col min="3" max="4" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
       <selection activeCell="Q6" sqref="Q6:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -2975,7 +2975,7 @@
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -4291,7 +4291,7 @@
       <selection sqref="A1:S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -5481,7 +5481,7 @@
       <selection sqref="A1:S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -6797,7 +6797,7 @@
       <selection activeCell="Q6" sqref="Q6:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -8086,7 +8086,7 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -9249,9 +9249,9 @@
       <selection activeCell="H79" sqref="H79:H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.85546875" style="8"/>
+    <col min="4" max="4" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10014,9 +10014,9 @@
       <selection sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
       <selection activeCell="L27" sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
@@ -12485,7 +12485,7 @@
       <selection sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -13715,14 +13715,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="8.85546875" style="7"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.81640625" style="7"/>
+    <col min="17" max="17" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -14943,9 +14943,9 @@
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -15993,7 +15993,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -16233,11 +16233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -17940,7 +17940,7 @@
       <selection activeCell="Q6" sqref="Q6:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -19188,7 +19188,7 @@
       <selection activeCell="Q6" sqref="Q6:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -20460,7 +20460,7 @@
       <selection sqref="A1:S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -21643,7 +21643,7 @@
       <selection activeCell="S12" sqref="S12:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -22959,7 +22959,7 @@
       <selection sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -24134,7 +24134,7 @@
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
